--- a/biology/Botanique/Cosmos_sulphureus/Cosmos_sulphureus.xlsx
+++ b/biology/Botanique/Cosmos_sulphureus/Cosmos_sulphureus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosmos sulfureux, Cosmos de Klondike
-Le Cosmos sulfureux ou Cosmos de Klondike, Cosmos sulphureus, est une espèce de plante à fleurs de la famille des Asteraceae, originaire du Mexique et largement diffusée en Afrique et en Asie. Elle est localement considérée comme invasive aux États-Unis[1] et au Brésil[2].
+Le Cosmos sulfureux ou Cosmos de Klondike, Cosmos sulphureus, est une espèce de plante à fleurs de la famille des Asteraceae, originaire du Mexique et largement diffusée en Afrique et en Asie. Elle est localement considérée comme invasive aux États-Unis et au Brésil.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes annuelles à port érigé et ramifié.
 Le feuillage caduc est composé de fines feuilles (10 à 30 centimètres), opposées à cinq lobes pennés jusqu'à la nervure centrale. L'inflorescence (capitule) est de couleur orange lumineux le plus souvent (jaune à rouge chez les cultivars). Le fruit est un akène. On en compte une quarantaine par capitule.
@@ -547,19 +561,133 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Alimentation et thérapeutique
-Les jeunes pousses sont consommées crues ou cuites en Indonésie sous le nom de lalab ou gudang[3]. 
-En Thaïlande, elles sont consommées dans les salades[3] ou en tisane avec pour effet d'inhiber la lipase pancréatique [4]. 
-Une publication ukrainienne (2017) attribue à un pain comprenant 10% d'extrait sec de Cosmos sulphureus une bonne note pour ses qualités organoleptiques [5].
-Selon une étude pakistanaise de 2017, chez le rat soumis à une forte dose de paracétamol l'extrait de la plante a un effet hépatoprotecteur[6].
-Divers
-Les fleurs sont tinctoriales[7], elles produisent un colorant jaune oranger, utilisé en Amérique précolombienne [8] et plus tard en Afrique australe pour teindre la laine [9].
-Une équipe germano-autrichienne a créé des pommiers transgéniques résistants au feu bactérien et à la tavelure par transgenèse d'un régulateur d'expression d'une chalcone [10] de la fleur de Cosmos sulphureus[11].
-Au Brésil ses effets allélopathiques ont été étudiés dans le contrôle des mauvaises herbes[2].
-Plante ornementale
-Le cosmos sulfureux est très couramment cultivé au jardin d'ornement.
-Cultivars
-Les fleurs des Cultivars sont jaunes, orangées ou rouges :
+          <t>Alimentation et thérapeutique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes pousses sont consommées crues ou cuites en Indonésie sous le nom de lalab ou gudang. 
+En Thaïlande, elles sont consommées dans les salades ou en tisane avec pour effet d'inhiber la lipase pancréatique . 
+Une publication ukrainienne (2017) attribue à un pain comprenant 10% d'extrait sec de Cosmos sulphureus une bonne note pour ses qualités organoleptiques .
+Selon une étude pakistanaise de 2017, chez le rat soumis à une forte dose de paracétamol l'extrait de la plante a un effet hépatoprotecteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cosmos_sulphureus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cosmos_sulphureus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont tinctoriales, elles produisent un colorant jaune oranger, utilisé en Amérique précolombienne  et plus tard en Afrique australe pour teindre la laine .
+Une équipe germano-autrichienne a créé des pommiers transgéniques résistants au feu bactérien et à la tavelure par transgenèse d'un régulateur d'expression d'une chalcone  de la fleur de Cosmos sulphureus.
+Au Brésil ses effets allélopathiques ont été étudiés dans le contrôle des mauvaises herbes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cosmos_sulphureus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cosmos_sulphureus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plante ornementale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cosmos sulfureux est très couramment cultivé au jardin d'ornement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cosmos_sulphureus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cosmos_sulphureus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plante ornementale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cultivars</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les fleurs des Cultivars sont jaunes, orangées ou rouges :
 'Bright Lights' a des fleurs simples et semi-doubles dans les couleurs de jaune, orangé et rouge. Le plant est compact à 60 cm.
 'Diablo' atteint 75 cm avec des fleurs de 5 cm rouge orangé intense.
 la série Lady Bird comprend des cultivars nains à 40 cm. Leur floraison est très hâtive. Les fleurs ont des couleurs éclatantes dans les teintes de jaune, orange et écarlate.
